--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200402.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200402.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,140 +417,170 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>新增无症状感染人数</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>新增无症状感染治愈人数</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>新增无症状感染死亡人数</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>累计确诊人数</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>累计疑似人数</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>累计治愈人数</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>累计死亡人数</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>累计无症状感染人数</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>累计无症状感染治愈人数</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>累计无症状感染死亡人数</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
         <is>
           <t>核减人数</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>累计核减人数</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>数据源</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>数据发布时间</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>数据源文本</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>数据源链接</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>数据间接发布时间</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>数据间接发布来源</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>数据间接发布来源链接</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>数据收集时间</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>数据收集方式</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>数据收集人员/程序姓名</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>数据是否核查</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>数据首次核查时间</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>数据首次核查方式</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>数据首次核查人员/程序姓名</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>数据首次核查状态</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>更正人员</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>更正时间</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>数据再次核查时间</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>数据再次核查方式</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>数据再次核查人员/程序姓名</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>数据再次核查状态</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -593,26 +623,26 @@
       <c r="L2" t="n">
         <v>4</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>50007</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>46461</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>2563</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -625,47 +655,47 @@
 </t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -702,26 +732,26 @@
           <t>孝感市</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>3518</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>3389</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>128</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -734,47 +764,47 @@
 </t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -811,26 +841,26 @@
           <t>黄冈市</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>2907</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>2782</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
         <v>125</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -843,47 +873,47 @@
 </t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -920,26 +950,26 @@
           <t>随州市</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>1307</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>1262</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>45</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -952,47 +982,47 @@
 </t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1029,26 +1059,26 @@
           <t>荆州市</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>1580</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>1528</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>52</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1061,47 +1091,47 @@
 </t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1138,26 +1168,26 @@
           <t>襄阳市</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>1175</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>1135</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>39</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1170,47 +1200,47 @@
 </t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1247,26 +1277,26 @@
           <t>黄石市</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>1015</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>976</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>39</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1279,47 +1309,47 @@
 </t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1356,26 +1386,26 @@
           <t>宜昌市</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>931</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>894</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
         <v>36</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1388,47 +1418,47 @@
 </t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1465,26 +1495,26 @@
           <t>荆门市</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>928</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>887</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>41</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1497,47 +1527,47 @@
 </t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1574,26 +1604,26 @@
           <t>鄂州市</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>1394</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>1335</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>59</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1606,47 +1636,47 @@
 </t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1683,26 +1713,26 @@
           <t>咸宁市</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>836</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>821</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>15</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1715,47 +1745,47 @@
 </t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1792,26 +1822,26 @@
           <t>十堰市</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>672</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>664</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>8</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1824,47 +1854,47 @@
 </t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -1901,26 +1931,26 @@
           <t>仙桃市</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>575</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>552</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>22</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -1933,47 +1963,47 @@
 </t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2010,26 +2040,26 @@
           <t>天门市</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>496</v>
       </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>481</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
         <v>15</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2042,47 +2072,47 @@
 </t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2119,26 +2149,26 @@
           <t>恩施土家族苗族自治州</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
         <v>252</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>245</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>7</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2151,47 +2181,47 @@
 </t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2228,26 +2258,26 @@
           <t>潜江市</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>198</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>189</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>9</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2260,47 +2290,47 @@
 </t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2337,23 +2367,23 @@
           <t>神农架林区</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>11</v>
       </c>
-      <c r="O18" t="n">
+      <c r="R18" t="n">
         <v>11</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2366,47 +2396,47 @@
 </t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2443,17 +2473,17 @@
           <t>监狱系统</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2466,47 +2496,47 @@
 </t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2543,17 +2573,17 @@
           <t>地区待确定</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2566,47 +2596,47 @@
 </t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
@@ -2650,32 +2680,32 @@
       <c r="L21" t="n">
         <v>4</v>
       </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
         <v>67802</v>
       </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="n">
+      <c r="R21" t="n">
         <v>63612</v>
       </c>
-      <c r="P21" t="n">
+      <c r="S21" t="n">
         <v>3203</v>
       </c>
-      <c r="R21" t="n">
+      <c r="X21" t="n">
         <v>-1132</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="Y21" t="inlineStr">
         <is>
           <t>湖北省卫健委</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>2020/4/2 9:00</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t xml:space="preserve">2020年4月2日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入病例。
  全省新增病亡4例，其中：武汉市4例，其他16个市州均为0例。
@@ -2688,47 +2718,47 @@
 </t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
         <is>
           <t>已核查</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>2020/04/03 11:23</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>手动</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>林增敏</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>2020/04/03 13:53</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>林增敏</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
         <is>
           <t>核查通过</t>
         </is>
